--- a/Datasets/AAPL.xlsx
+++ b/Datasets/AAPL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="192">
   <si>
     <t>Error</t>
   </si>
@@ -30,7 +30,409 @@
     <t>Too Many Requests. Rate limited. Try after a while.</t>
   </si>
   <si>
-    <t>Could not fetch ESG data: No ESG data available for this ticker after multiple attempts</t>
+    <t>ESG Score</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>01-05-2025</t>
+  </si>
+  <si>
+    <t>01-04-2025</t>
+  </si>
+  <si>
+    <t>01-03-2025</t>
+  </si>
+  <si>
+    <t>01-02-2025</t>
+  </si>
+  <si>
+    <t>01-01-2025</t>
+  </si>
+  <si>
+    <t>01-12-2024</t>
+  </si>
+  <si>
+    <t>01-11-2024</t>
+  </si>
+  <si>
+    <t>01-10-2024</t>
+  </si>
+  <si>
+    <t>01-09-2024</t>
+  </si>
+  <si>
+    <t>01-08-2024</t>
+  </si>
+  <si>
+    <t>01-07-2024</t>
+  </si>
+  <si>
+    <t>01-06-2024</t>
+  </si>
+  <si>
+    <t>01-05-2024</t>
+  </si>
+  <si>
+    <t>01-04-2024</t>
+  </si>
+  <si>
+    <t>01-03-2024</t>
+  </si>
+  <si>
+    <t>01-02-2024</t>
+  </si>
+  <si>
+    <t>01-01-2024</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
+  </si>
+  <si>
+    <t>01-11-2023</t>
+  </si>
+  <si>
+    <t>01-10-2023</t>
+  </si>
+  <si>
+    <t>01-09-2023</t>
+  </si>
+  <si>
+    <t>01-08-2023</t>
+  </si>
+  <si>
+    <t>01-07-2023</t>
+  </si>
+  <si>
+    <t>01-06-2023</t>
+  </si>
+  <si>
+    <t>01-05-2023</t>
+  </si>
+  <si>
+    <t>01-04-2023</t>
+  </si>
+  <si>
+    <t>01-03-2023</t>
+  </si>
+  <si>
+    <t>01-02-2023</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>01-12-2022</t>
+  </si>
+  <si>
+    <t>01-11-2022</t>
+  </si>
+  <si>
+    <t>01-10-2022</t>
+  </si>
+  <si>
+    <t>01-09-2022</t>
+  </si>
+  <si>
+    <t>01-08-2022</t>
+  </si>
+  <si>
+    <t>01-07-2022</t>
+  </si>
+  <si>
+    <t>01-06-2022</t>
+  </si>
+  <si>
+    <t>01-05-2022</t>
+  </si>
+  <si>
+    <t>01-04-2022</t>
+  </si>
+  <si>
+    <t>01-03-2022</t>
+  </si>
+  <si>
+    <t>01-02-2022</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>01-12-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-03-2021</t>
+  </si>
+  <si>
+    <t>01-02-2021</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-12-2020</t>
+  </si>
+  <si>
+    <t>01-11-2020</t>
+  </si>
+  <si>
+    <t>01-10-2020</t>
+  </si>
+  <si>
+    <t>01-09-2020</t>
+  </si>
+  <si>
+    <t>01-08-2020</t>
+  </si>
+  <si>
+    <t>01-07-2020</t>
+  </si>
+  <si>
+    <t>01-06-2020</t>
+  </si>
+  <si>
+    <t>01-05-2020</t>
+  </si>
+  <si>
+    <t>01-04-2020</t>
+  </si>
+  <si>
+    <t>01-03-2020</t>
+  </si>
+  <si>
+    <t>01-02-2020</t>
+  </si>
+  <si>
+    <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>01-12-2019</t>
+  </si>
+  <si>
+    <t>01-11-2019</t>
+  </si>
+  <si>
+    <t>01-10-2019</t>
+  </si>
+  <si>
+    <t>01-09-2019</t>
+  </si>
+  <si>
+    <t>01-08-2019</t>
+  </si>
+  <si>
+    <t>01-07-2019</t>
+  </si>
+  <si>
+    <t>01-06-2019</t>
+  </si>
+  <si>
+    <t>01-05-2019</t>
+  </si>
+  <si>
+    <t>01-04-2019</t>
+  </si>
+  <si>
+    <t>01-03-2019</t>
+  </si>
+  <si>
+    <t>01-02-2019</t>
+  </si>
+  <si>
+    <t>01-01-2019</t>
+  </si>
+  <si>
+    <t>01-12-2018</t>
+  </si>
+  <si>
+    <t>01-11-2018</t>
+  </si>
+  <si>
+    <t>01-10-2018</t>
+  </si>
+  <si>
+    <t>01-09-2018</t>
+  </si>
+  <si>
+    <t>01-08-2018</t>
+  </si>
+  <si>
+    <t>01-07-2018</t>
+  </si>
+  <si>
+    <t>01-06-2018</t>
+  </si>
+  <si>
+    <t>01-05-2018</t>
+  </si>
+  <si>
+    <t>01-04-2018</t>
+  </si>
+  <si>
+    <t>01-03-2018</t>
+  </si>
+  <si>
+    <t>01-02-2018</t>
+  </si>
+  <si>
+    <t>01-01-2018</t>
+  </si>
+  <si>
+    <t>01-12-2017</t>
+  </si>
+  <si>
+    <t>01-11-2017</t>
+  </si>
+  <si>
+    <t>01-10-2017</t>
+  </si>
+  <si>
+    <t>01-09-2017</t>
+  </si>
+  <si>
+    <t>01-08-2017</t>
+  </si>
+  <si>
+    <t>01-07-2017</t>
+  </si>
+  <si>
+    <t>01-06-2017</t>
+  </si>
+  <si>
+    <t>01-05-2017</t>
+  </si>
+  <si>
+    <t>01-04-2017</t>
+  </si>
+  <si>
+    <t>01-03-2017</t>
+  </si>
+  <si>
+    <t>01-02-2017</t>
+  </si>
+  <si>
+    <t>01-01-2017</t>
+  </si>
+  <si>
+    <t>01-12-2016</t>
+  </si>
+  <si>
+    <t>01-11-2016</t>
+  </si>
+  <si>
+    <t>01-10-2016</t>
+  </si>
+  <si>
+    <t>01-09-2016</t>
+  </si>
+  <si>
+    <t>01-08-2016</t>
+  </si>
+  <si>
+    <t>01-07-2016</t>
+  </si>
+  <si>
+    <t>01-06-2016</t>
+  </si>
+  <si>
+    <t>01-05-2016</t>
+  </si>
+  <si>
+    <t>01-04-2016</t>
+  </si>
+  <si>
+    <t>01-03-2016</t>
+  </si>
+  <si>
+    <t>01-02-2016</t>
+  </si>
+  <si>
+    <t>01-01-2016</t>
+  </si>
+  <si>
+    <t>01-12-2015</t>
+  </si>
+  <si>
+    <t>01-11-2015</t>
+  </si>
+  <si>
+    <t>01-10-2015</t>
+  </si>
+  <si>
+    <t>01-09-2015</t>
+  </si>
+  <si>
+    <t>01-08-2015</t>
+  </si>
+  <si>
+    <t>01-07-2015</t>
+  </si>
+  <si>
+    <t>01-06-2015</t>
+  </si>
+  <si>
+    <t>01-05-2015</t>
+  </si>
+  <si>
+    <t>01-04-2015</t>
+  </si>
+  <si>
+    <t>01-03-2015</t>
+  </si>
+  <si>
+    <t>01-02-2015</t>
+  </si>
+  <si>
+    <t>01-01-2015</t>
+  </si>
+  <si>
+    <t>01-12-2014</t>
+  </si>
+  <si>
+    <t>01-11-2014</t>
+  </si>
+  <si>
+    <t>01-10-2014</t>
+  </si>
+  <si>
+    <t>01-09-2014</t>
+  </si>
+  <si>
+    <t>Note: Partially estimated values (some components not available)</t>
   </si>
   <si>
     <t>Could not fetch company summary: Too Many Requests. Rate limited. Try after a while.</t>
@@ -63,10 +465,130 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Sustainability data could not be fetched. Status code: 404</t>
+    <t>AVNW</t>
+  </si>
+  <si>
+    <t>Aviat Networks, Inc.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>CLFD</t>
+  </si>
+  <si>
+    <t>Clearfield, Inc.</t>
+  </si>
+  <si>
+    <t>OSIS</t>
+  </si>
+  <si>
+    <t>OSI Systems, Inc.</t>
+  </si>
+  <si>
+    <t>CNCJO-B.ST</t>
+  </si>
+  <si>
+    <t>Concejo AB ser. B</t>
+  </si>
+  <si>
+    <t>Related Tickers</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>24.68</t>
+  </si>
+  <si>
+    <t>51.000</t>
+  </si>
+  <si>
+    <t>0.6083</t>
+  </si>
+  <si>
+    <t>10.89</t>
+  </si>
+  <si>
+    <t>1810.HK</t>
+  </si>
+  <si>
+    <t>GPRO</t>
+  </si>
+  <si>
+    <t>SONO</t>
+  </si>
+  <si>
+    <t>2498.TW</t>
+  </si>
+  <si>
+    <t>VUZI</t>
+  </si>
+  <si>
+    <t>XIACY</t>
+  </si>
+  <si>
+    <t>005930.KS</t>
+  </si>
+  <si>
+    <t>4749.TWO</t>
+  </si>
+  <si>
+    <t>2439.TW</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Controversy Level</t>
+  </si>
+  <si>
+    <t>Product Involvement Areas</t>
+  </si>
+  <si>
+    <t>Adult Entertainment</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Animal Testing</t>
+  </si>
+  <si>
+    <t>Controversial Weapons</t>
+  </si>
+  <si>
+    <t>Small Arms</t>
+  </si>
+  <si>
+    <t>Fur and Specialty Leather</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Military Contracting</t>
+  </si>
+  <si>
+    <t>Pesticides</t>
+  </si>
+  <si>
+    <t>Palm Oil</t>
+  </si>
+  <si>
+    <t>Thermal Coal</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Could not fetch income statement data: Could not extract income statement data from any source</t>
@@ -82,7 +604,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd-mm-yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +632,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -122,13 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFE6F2FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F2FF"/>
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,18 +712,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,26 +1066,1735 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>18.99</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.2667</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.2667</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.2667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.1875</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6.1875</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.1875</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.1875</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16.36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.3988</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.3988</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.3988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16.79</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.5407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16.79</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.5407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16.79</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.5407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>16.79</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.5407</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.5407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>17.22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.6826</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.6826</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5.6826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>16.68</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5.5044</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.5044</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5.5044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>16.41</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5.4153</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5.4153</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5.4153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>16.27</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5.3691</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5.3691</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5.3691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3">
+        <v>16.92</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5.583600000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5.583600000000001</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5.583600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="3">
+        <v>16.92</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5.583600000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5.583600000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5.583600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="3">
+        <v>16.73</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5.5209</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5.5209</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5.5209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3">
+        <v>16.58</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5.4714</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5.4714</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5.4714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3">
+        <v>16.46</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5.431800000000001</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5.431800000000001</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5.431800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3">
+        <v>23.65</v>
+      </c>
+      <c r="C57" s="3">
+        <v>7.8045</v>
+      </c>
+      <c r="D57" s="3">
+        <v>7.8045</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7.8045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3">
+        <v>23.62</v>
+      </c>
+      <c r="C59" s="3">
+        <v>7.794600000000001</v>
+      </c>
+      <c r="D59" s="3">
+        <v>7.794600000000001</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7.794600000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="3">
+        <v>23.62</v>
+      </c>
+      <c r="C60" s="3">
+        <v>7.794600000000001</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7.794600000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7.794600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="3">
+        <v>23.82</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7.860600000000001</v>
+      </c>
+      <c r="D64" s="3">
+        <v>7.860600000000001</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7.860600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="3">
+        <v>23.82</v>
+      </c>
+      <c r="C65" s="3">
+        <v>7.860600000000001</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7.860600000000001</v>
+      </c>
+      <c r="E65" s="3">
+        <v>7.860600000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="3">
+        <v>23.82</v>
+      </c>
+      <c r="C66" s="3">
+        <v>7.860600000000001</v>
+      </c>
+      <c r="D66" s="3">
+        <v>7.860600000000001</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7.860600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>7.788000000000001</v>
+      </c>
+      <c r="D67" s="3">
+        <v>7.788000000000001</v>
+      </c>
+      <c r="E67" s="3">
+        <v>7.788000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="3">
+        <v>72.27</v>
+      </c>
+      <c r="C68" s="3">
+        <v>23.8491</v>
+      </c>
+      <c r="D68" s="3">
+        <v>23.8491</v>
+      </c>
+      <c r="E68" s="3">
+        <v>23.8491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3">
+        <v>72.27</v>
+      </c>
+      <c r="C69" s="3">
+        <v>23.8491</v>
+      </c>
+      <c r="D69" s="3">
+        <v>23.8491</v>
+      </c>
+      <c r="E69" s="3">
+        <v>23.8491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="3">
+        <v>72.27</v>
+      </c>
+      <c r="C70" s="3">
+        <v>23.8491</v>
+      </c>
+      <c r="D70" s="3">
+        <v>23.8491</v>
+      </c>
+      <c r="E70" s="3">
+        <v>23.8491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="3">
+        <v>70.28</v>
+      </c>
+      <c r="C71" s="3">
+        <v>23.1924</v>
+      </c>
+      <c r="D71" s="3">
+        <v>23.1924</v>
+      </c>
+      <c r="E71" s="3">
+        <v>23.1924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="3">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C72" s="3">
+        <v>23.232</v>
+      </c>
+      <c r="D72" s="3">
+        <v>23.232</v>
+      </c>
+      <c r="E72" s="3">
+        <v>23.232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="3">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C73" s="3">
+        <v>23.232</v>
+      </c>
+      <c r="D73" s="3">
+        <v>23.232</v>
+      </c>
+      <c r="E73" s="3">
+        <v>23.232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="3">
+        <v>70.34</v>
+      </c>
+      <c r="C74" s="3">
+        <v>23.2122</v>
+      </c>
+      <c r="D74" s="3">
+        <v>23.2122</v>
+      </c>
+      <c r="E74" s="3">
+        <v>23.2122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="3">
+        <v>70.34</v>
+      </c>
+      <c r="C75" s="3">
+        <v>23.2122</v>
+      </c>
+      <c r="D75" s="3">
+        <v>23.2122</v>
+      </c>
+      <c r="E75" s="3">
+        <v>23.2122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="3">
+        <v>70.34</v>
+      </c>
+      <c r="C76" s="3">
+        <v>23.2122</v>
+      </c>
+      <c r="D76" s="3">
+        <v>23.2122</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23.2122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="3">
+        <v>70.63</v>
+      </c>
+      <c r="C77" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="D77" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="E77" s="3">
+        <v>23.3079</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="3">
+        <v>70.63</v>
+      </c>
+      <c r="C78" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="D78" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="E78" s="3">
+        <v>23.3079</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="3">
+        <v>70.63</v>
+      </c>
+      <c r="C79" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="D79" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="E79" s="3">
+        <v>23.3079</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="3">
+        <v>70.63</v>
+      </c>
+      <c r="C80" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="D80" s="3">
+        <v>23.3079</v>
+      </c>
+      <c r="E80" s="3">
+        <v>23.3079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="3">
+        <v>69.33</v>
+      </c>
+      <c r="C81" s="3">
+        <v>22.8789</v>
+      </c>
+      <c r="D81" s="3">
+        <v>22.8789</v>
+      </c>
+      <c r="E81" s="3">
+        <v>22.8789</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="3">
+        <v>69.33</v>
+      </c>
+      <c r="C82" s="3">
+        <v>22.8789</v>
+      </c>
+      <c r="D82" s="3">
+        <v>22.8789</v>
+      </c>
+      <c r="E82" s="3">
+        <v>22.8789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="3">
+        <v>69.33</v>
+      </c>
+      <c r="C83" s="3">
+        <v>22.8789</v>
+      </c>
+      <c r="D83" s="3">
+        <v>22.8789</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22.8789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C84" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D84" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E84" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C85" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D85" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E85" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C86" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D86" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E86" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C87" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D87" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E87" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C88" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D88" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E88" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C89" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D89" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E89" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="3">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="C90" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="D90" s="3">
+        <v>22.6182</v>
+      </c>
+      <c r="E90" s="3">
+        <v>22.6182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="3">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C91" s="3">
+        <v>22.242</v>
+      </c>
+      <c r="D91" s="3">
+        <v>22.242</v>
+      </c>
+      <c r="E91" s="3">
+        <v>22.242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="3">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C92" s="3">
+        <v>22.242</v>
+      </c>
+      <c r="D92" s="3">
+        <v>22.242</v>
+      </c>
+      <c r="E92" s="3">
+        <v>22.242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="3">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C93" s="3">
+        <v>22.242</v>
+      </c>
+      <c r="D93" s="3">
+        <v>22.242</v>
+      </c>
+      <c r="E93" s="3">
+        <v>22.242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="3">
+        <v>67.19</v>
+      </c>
+      <c r="C94" s="3">
+        <v>22.1727</v>
+      </c>
+      <c r="D94" s="3">
+        <v>22.1727</v>
+      </c>
+      <c r="E94" s="3">
+        <v>22.1727</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="3">
+        <v>67.19</v>
+      </c>
+      <c r="C95" s="3">
+        <v>22.1727</v>
+      </c>
+      <c r="D95" s="3">
+        <v>22.1727</v>
+      </c>
+      <c r="E95" s="3">
+        <v>22.1727</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C96" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="D96" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="E96" s="3">
+        <v>22.2024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="3">
+        <v>67.19</v>
+      </c>
+      <c r="C97" s="3">
+        <v>22.1727</v>
+      </c>
+      <c r="D97" s="3">
+        <v>22.1727</v>
+      </c>
+      <c r="E97" s="3">
+        <v>22.1727</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C98" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="D98" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="E98" s="3">
+        <v>22.2024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C99" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="D99" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="E99" s="3">
+        <v>22.2024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C100" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="D100" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="E100" s="3">
+        <v>22.2024</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C101" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="D101" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="E101" s="3">
+        <v>22.2024</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="3">
+        <v>67.28</v>
+      </c>
+      <c r="C102" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="D102" s="3">
+        <v>22.2024</v>
+      </c>
+      <c r="E102" s="3">
+        <v>22.2024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="3">
+        <v>67.36</v>
+      </c>
+      <c r="C103" s="3">
+        <v>22.2288</v>
+      </c>
+      <c r="D103" s="3">
+        <v>22.2288</v>
+      </c>
+      <c r="E103" s="3">
+        <v>22.2288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="3">
+        <v>67.36</v>
+      </c>
+      <c r="C104" s="3">
+        <v>22.2288</v>
+      </c>
+      <c r="D104" s="3">
+        <v>22.2288</v>
+      </c>
+      <c r="E104" s="3">
+        <v>22.2288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C105" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D105" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E105" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C106" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D106" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E106" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C107" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D107" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E107" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C108" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D108" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E108" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C109" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D109" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E109" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C110" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D110" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E110" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="3">
+        <v>62.33</v>
+      </c>
+      <c r="C111" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="D111" s="3">
+        <v>20.5689</v>
+      </c>
+      <c r="E111" s="3">
+        <v>20.5689</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="3">
+        <v>62.36</v>
+      </c>
+      <c r="C112" s="3">
+        <v>20.5788</v>
+      </c>
+      <c r="D112" s="3">
+        <v>20.5788</v>
+      </c>
+      <c r="E112" s="3">
+        <v>20.5788</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="3">
+        <v>62.36</v>
+      </c>
+      <c r="C113" s="3">
+        <v>20.5788</v>
+      </c>
+      <c r="D113" s="3">
+        <v>20.5788</v>
+      </c>
+      <c r="E113" s="3">
+        <v>20.5788</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="3">
+        <v>62.36</v>
+      </c>
+      <c r="C114" s="3">
+        <v>20.5788</v>
+      </c>
+      <c r="D114" s="3">
+        <v>20.5788</v>
+      </c>
+      <c r="E114" s="3">
+        <v>20.5788</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="3">
+        <v>62</v>
+      </c>
+      <c r="C115" s="3">
+        <v>20.46</v>
+      </c>
+      <c r="D115" s="3">
+        <v>20.46</v>
+      </c>
+      <c r="E115" s="3">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="3">
+        <v>62</v>
+      </c>
+      <c r="C116" s="3">
+        <v>20.46</v>
+      </c>
+      <c r="D116" s="3">
+        <v>20.46</v>
+      </c>
+      <c r="E116" s="3">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="3">
+        <v>63</v>
+      </c>
+      <c r="C117" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="D117" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="E117" s="3">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="3">
+        <v>64</v>
+      </c>
+      <c r="C118" s="3">
+        <v>21.12</v>
+      </c>
+      <c r="D118" s="3">
+        <v>21.12</v>
+      </c>
+      <c r="E118" s="3">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="3">
+        <v>64</v>
+      </c>
+      <c r="C119" s="3">
+        <v>21.12</v>
+      </c>
+      <c r="D119" s="3">
+        <v>21.12</v>
+      </c>
+      <c r="E119" s="3">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="3">
+        <v>63</v>
+      </c>
+      <c r="C120" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="D120" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="E120" s="3">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="3">
+        <v>63</v>
+      </c>
+      <c r="C121" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="D121" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="E121" s="3">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="3">
+        <v>63</v>
+      </c>
+      <c r="C122" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="D122" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="E122" s="3">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="3">
+        <v>63</v>
+      </c>
+      <c r="C123" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="D123" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="E123" s="3">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="3">
+        <v>63</v>
+      </c>
+      <c r="C124" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="D124" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="E124" s="3">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="3">
+        <v>61</v>
+      </c>
+      <c r="C125" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="D125" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="E125" s="3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="3">
+        <v>61</v>
+      </c>
+      <c r="C126" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="D126" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="E126" s="3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="3">
+        <v>61</v>
+      </c>
+      <c r="C127" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="D127" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="E127" s="3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="3">
+        <v>61</v>
+      </c>
+      <c r="C128" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="D128" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="E128" s="3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="3">
+        <v>60</v>
+      </c>
+      <c r="C129" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="D129" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="E129" s="3">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="3">
+        <v>61</v>
+      </c>
+      <c r="C130" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="D130" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="E130" s="3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A132:E132"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -534,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +2853,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,50 +2866,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="A2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -634,23 +3184,133 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="26" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" s="10" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="11" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="10" customHeight="1"/>
+    <row r="4" spans="1:2" s="11" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +3333,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +3356,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +3379,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
